--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\GitHub\R\fmp_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3B5D2-EEEB-43E8-8E46-C83B65D39847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF30E8-4176-43EA-862E-DC1E33E472E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>DF1</t>
   </si>
@@ -331,13 +331,13 @@
     <t>Yes, only</t>
   </si>
   <si>
-    <t>DF2</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>For Total Equity Book Value</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DF1"/>
-    <tableColumn id="2" xr3:uid="{B3E7A1B1-541C-4A5F-8D71-F51A18DC7BA3}" name="DF2"/>
+    <tableColumn id="2" xr3:uid="{B3E7A1B1-541C-4A5F-8D71-F51A18DC7BA3}" name="For Total Equity Book Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,13 +693,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="133" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,23 +708,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -910,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +1004,7 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1152,7 @@
         <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\GitHub\R\fmp_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF30E8-4176-43EA-862E-DC1E33E472E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53262D-9B22-4A88-9F98-70AA1164C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>DF1</t>
   </si>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,138 +739,195 @@
       <c r="A5" t="s">
         <v>82</v>
       </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
